--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/HAWAII_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/HAWAII_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C15">
@@ -602,7 +602,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C17">
@@ -633,7 +633,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C19">
@@ -659,7 +659,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -869,7 +869,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C36">
@@ -882,7 +882,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C37">
@@ -934,7 +934,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C41">
@@ -986,7 +986,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C45">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C56">
@@ -1152,7 +1152,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C57">
@@ -1165,7 +1165,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C58">
@@ -1318,7 +1318,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C69">
@@ -1344,7 +1344,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C71">
@@ -1396,7 +1396,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C75">
@@ -1409,7 +1409,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C76">
@@ -1448,7 +1448,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C79">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C90">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C98">
@@ -1736,7 +1736,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C100">
@@ -1749,7 +1749,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C101">
@@ -1762,7 +1762,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C102">
@@ -1905,7 +1905,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C113">
@@ -1962,7 +1962,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C117">
@@ -1975,7 +1975,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C118">
@@ -2066,7 +2066,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C125">
@@ -2390,7 +2390,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C148">
@@ -2481,41 +2481,6 @@
       </c>
       <c r="D154">
         <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/HAWAII_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/HAWAII_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>León</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Huejúcar</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Martín Hidalgo</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1625,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1721,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -1747,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -1760,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1773,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Esteban Atatlahuca</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Juan Atepec</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Santa María Cortijo</t>
@@ -1851,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Santiago Choápam</t>
@@ -1864,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santiago Comaltepec</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1947,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -1960,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -1973,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1986,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -2103,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2165,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2196,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -2209,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -2222,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Naco</t>
@@ -2235,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -2248,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2279,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -2292,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -2305,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -2318,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -2331,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -2344,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2357,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2388,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2401,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2414,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2445,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -2458,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
